--- a/New entities/New entities.xlsx
+++ b/New entities/New entities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\ontologies\New entities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33AF6D0-0E00-4F56-8A50-DABF44B4CD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427057CE-EEC9-4845-902F-80E484FDC52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -121,26 +121,98 @@
     <t>acceptability of intervention</t>
   </si>
   <si>
-    <t>appraisal</t>
-  </si>
-  <si>
     <t>evaluative belief</t>
   </si>
   <si>
-    <t>self-efficacy</t>
-  </si>
-  <si>
     <t>perceived opportunity cost of adhering to intervention</t>
   </si>
   <si>
     <t>REL 'part of'</t>
+  </si>
+  <si>
+    <t>attitude</t>
+  </si>
+  <si>
+    <t>Evaluative belief' or 'affective attitude' or 'behavioural disposition'</t>
+  </si>
+  <si>
+    <t>A tendency to have positive or negative beliefs about something, to feel positively or negatively towards it, or show attraction or aversion to it.</t>
+  </si>
+  <si>
+    <t>A tendency to feel positively or negatively about something.</t>
+  </si>
+  <si>
+    <t>personal disposition</t>
+  </si>
+  <si>
+    <t>self-efficacy belief for a behaviour</t>
+  </si>
+  <si>
+    <t>A tendency to feel positively or negatively about an intervention.</t>
+  </si>
+  <si>
+    <t>A personal disposition to experience a subjectivr affective feeling about something.</t>
+  </si>
+  <si>
+    <t>An affective attitude whose target is an intervention.</t>
+  </si>
+  <si>
+    <t>A belief about the amount of time and effort will be required to engage with an intervention.</t>
+  </si>
+  <si>
+    <t>A belief about how far an intervention is ethical.</t>
+  </si>
+  <si>
+    <t>A belief about how effective an intervention in achieving its goal.</t>
+  </si>
+  <si>
+    <t>How far someone's understanding of an intervention makes sense to them in terms of its influence on the desired outcome.</t>
+  </si>
+  <si>
+    <t>How confident someone is in being able to engage appropriately with an intervention.</t>
+  </si>
+  <si>
+    <t>Self-efficacy belief for a behaviour where the behaviour is appropriate engagement with an intervention.</t>
+  </si>
+  <si>
+    <t>A belief about how far appropriate engagement with an intervention will reduce the opportunity to engage in other desired behaviours.</t>
+  </si>
+  <si>
+    <t>A belief about how far engaging with an intervention will lead to inability to do other things that are valued.</t>
+  </si>
+  <si>
+    <t>acceptability of an intervention</t>
+  </si>
+  <si>
+    <t>A person's evaluations and positive or negative feelings about an intervention</t>
+  </si>
+  <si>
+    <t>An evaluative belief about the amount of time and effort will be required to engage with an intervention.</t>
+  </si>
+  <si>
+    <t>An evaluative belief about how far an intervention conforms to an ethical standard.</t>
+  </si>
+  <si>
+    <t>An evaluative belief about how far an intervention is likely to achieve its desired objective.</t>
+  </si>
+  <si>
+    <t>An evaluative belief about how far an intervention conforms to an understanding of the causal mechanisms leading to its intended outcome.</t>
+  </si>
+  <si>
+    <t>The aggregate of a person's beliefs and affective attitudes about an intervention that may influence attitude to the intervention.</t>
+  </si>
+  <si>
+    <t>An evaluative belief or affective attitude about, or a behavioural disposition towards something.</t>
+  </si>
+  <si>
+    <t>robertwest100@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +230,14 @@
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,16 +257,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -487,36 +584,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U126"/>
+  <dimension ref="A1:U125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="47.36328125" customWidth="1"/>
-    <col min="3" max="3" width="43.453125" customWidth="1"/>
-    <col min="4" max="4" width="54.54296875" customWidth="1"/>
-    <col min="5" max="5" width="34.26953125" customWidth="1"/>
-    <col min="6" max="6" width="30.08984375" customWidth="1"/>
-    <col min="7" max="7" width="24.08984375" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="21.1796875" customWidth="1"/>
-    <col min="10" max="10" width="27.1796875" customWidth="1"/>
-    <col min="11" max="11" width="28.26953125" customWidth="1"/>
-    <col min="12" max="12" width="23.453125" customWidth="1"/>
-    <col min="13" max="13" width="19.26953125" customWidth="1"/>
-    <col min="14" max="14" width="31" customWidth="1"/>
-    <col min="15" max="15" width="29.26953125" customWidth="1"/>
-    <col min="16" max="16" width="12.7265625" customWidth="1"/>
-    <col min="17" max="17" width="38.6328125" customWidth="1"/>
-    <col min="19" max="19" width="27.90625" customWidth="1"/>
-    <col min="20" max="20" width="31.54296875" customWidth="1"/>
-    <col min="21" max="21" width="43.81640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="3"/>
+    <col min="2" max="2" width="35.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="43.453125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="54.54296875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="34.26953125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.08984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.08984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20" style="3" customWidth="1"/>
+    <col min="9" max="9" width="21.1796875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="27.1796875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="28.26953125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="23.453125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="19.26953125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="31" style="3" customWidth="1"/>
+    <col min="15" max="15" width="29.26953125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.7265625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="38.6328125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="8.7265625" style="3"/>
+    <col min="19" max="19" width="27.90625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="31.54296875" style="3" customWidth="1"/>
+    <col min="21" max="21" width="43.81640625" style="3" customWidth="1"/>
+    <col min="22" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
@@ -548,7 +648,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -584,331 +684,442 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
+    <row r="2" spans="1:21" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+    <row r="3" spans="1:21" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="J4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="3" t="s">
+    <row r="5" spans="1:21" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="C9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="3" t="s">
+    <row r="10" spans="1:21" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="G10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" s="3" t="s">
+      <c r="R10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="S10" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="3" t="s">
+    <row r="11" spans="1:21" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R7" s="3" t="s">
+      <c r="R11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="S11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="21" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="22" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="23" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="24" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="25" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="26" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="27" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="28" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="29" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="30" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="31" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="32" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="36" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="37" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="38" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="39" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="40" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="41" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="43" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="44" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="45" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="46" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="47" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="48" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="49" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="54" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="55" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="56" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="57" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="58" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="59" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="60" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="61" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="62" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="63" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="64" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="65" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="66" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="67" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="68" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="69" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="70" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="71" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="72" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="73" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="74" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="75" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="76" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="77" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="78" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="79" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="80" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="81" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="82" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="83" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="84" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="85" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="86" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="87" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="88" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="89" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="90" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="91" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="92" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="93" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="94" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="95" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="96" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="97" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="98" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="99" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="100" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="101" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="102" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="103" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="104" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="105" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="106" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="107" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="108" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="109" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="110" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="111" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="112" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="113" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="114" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="115" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="116" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="117" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="118" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="119" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="120" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="121" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="122" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="123" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="124" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="125" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="126" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="17" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="18" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="23" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="24" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="25" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="26" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="27" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="28" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="29" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="30" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="31" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="32" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="33" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="48" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="57" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="62" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="67" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="68" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="69" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="70" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="73" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="76" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="77" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="78" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="79" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="81" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="82" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="83" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="84" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="85" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="86" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="87" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="88" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="89" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="90" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="91" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="92" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="93" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="94" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="95" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="96" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="97" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="98" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="99" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="100" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="101" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="102" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="103" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="104" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="105" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="106" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="107" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="108" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="109" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="110" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="111" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="112" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="113" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="114" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="115" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="116" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="117" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="118" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="119" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="120" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="121" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="122" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="123" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="124" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="125" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F11" r:id="rId1" xr:uid="{1DDB8547-15A1-405C-B62A-E4397ED33CB5}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>